--- a/CIS 450/Assignment 2/Memory Images.xlsx
+++ b/CIS 450/Assignment 2/Memory Images.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewew\Desktop\School\CIS 450\Assignment 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bewew\Desktop\CIS-450\CIS 450\Assignment 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>envp</t>
   </si>
@@ -87,14 +87,177 @@
   </si>
   <si>
     <t>j</t>
+  </si>
+  <si>
+    <t>c1</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>0aH, '%d', 09H, '%d', 09H, '%d', 09H, '%d', 09H, '%d', 09H, '%d', 0aH, 00H</t>
+  </si>
+  <si>
+    <t>c1(2)</t>
+  </si>
+  <si>
+    <t>m(1)</t>
+  </si>
+  <si>
+    <t>000000000000</t>
+  </si>
+  <si>
+    <t>n(3)</t>
+  </si>
+  <si>
+    <t>c1(3)</t>
+  </si>
+  <si>
+    <t>m(3)</t>
+  </si>
+  <si>
+    <t>: $SG7350</t>
+  </si>
+  <si>
+    <t>trace_me(2, 1, 2)'s fp</t>
+  </si>
+  <si>
+    <t>trace_me(2, 1, 2)'s
+frame</t>
+  </si>
+  <si>
+    <t>trace_me(1,3,3)'s fp</t>
+  </si>
+  <si>
+    <t>c1(4)</t>
+  </si>
+  <si>
+    <t>trace_me(1,3,3)'s
+frame</t>
+  </si>
+  <si>
+    <t>m(5)</t>
+  </si>
+  <si>
+    <t>p(9)</t>
+  </si>
+  <si>
+    <t>trace_me(0,5,4)'s
+frame</t>
+  </si>
+  <si>
+    <t>trace_me(0,5,4)'s fp</t>
+  </si>
+  <si>
+    <t>o(2)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3, 2, 0, ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>2,</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1, 0, ?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5, 4, 3, 2, 1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">9, </t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8, 7</t>
+    </r>
+  </si>
+  <si>
+    <t>ret to trace_me(0)</t>
+  </si>
+  <si>
+    <t>ret to main(0)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -110,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -291,28 +454,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -424,11 +565,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -439,27 +621,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -469,81 +684,104 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,141 +1079,141 @@
   <sheetData>
     <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="10" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B4" s="22"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="23" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="27"/>
+      <c r="J4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B5" s="22"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23" t="s">
+      <c r="B5" s="10"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="27"/>
+      <c r="J5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B6" s="22"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="23"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="10" t="s">
+      <c r="G6" s="11"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
       <c r="N6" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B7" s="22"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="23"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="18" t="s">
+      <c r="G7" s="11"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="33"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="17"/>
       <c r="N7" s="1">
         <v>-4</v>
       </c>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="10" t="s">
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
       <c r="N8" s="1">
         <v>-8</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="I9" s="31"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="28"/>
+      <c r="J9" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1">
         <v>-12</v>
       </c>
@@ -984,183 +1222,183 @@
       </c>
     </row>
     <row r="10" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="33"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="1">
         <v>-16</v>
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23" t="s">
+      <c r="B11" s="10"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="J11" s="32"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="1">
         <v>-20</v>
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="J12" s="32"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="33"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="1">
         <v>-24</v>
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="8"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="23"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="33"/>
+      <c r="G13" s="11"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="1">
         <v>-28</v>
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="23"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="33"/>
+      <c r="G14" s="11"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="1">
         <v>-32</v>
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="33"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="1">
         <v>-36</v>
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="J16" s="32"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="33"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="1">
         <v>-40</v>
       </c>
     </row>
     <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="33"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="1">
         <v>-44</v>
       </c>
     </row>
     <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" s="22"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="23"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="33"/>
+      <c r="G18" s="11"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="17"/>
       <c r="N18" s="1">
         <v>-48</v>
       </c>
     </row>
     <row r="19" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="23"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="33"/>
+      <c r="G19" s="11"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="15"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="17"/>
       <c r="N19" s="1">
         <v>-52</v>
       </c>
     </row>
     <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" s="22"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="23"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="33"/>
+      <c r="G20" s="11"/>
+      <c r="J20" s="16"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="17"/>
       <c r="N20" s="1">
         <v>-56</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="19"/>
+      <c r="M21" s="20"/>
       <c r="N21" s="1">
         <v>-60</v>
       </c>
@@ -1168,11 +1406,6 @@
     <row r="22" spans="2:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="I2:I9"/>
@@ -1180,6 +1413,11 @@
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="J4:M4"/>
     <mergeCell ref="J5:M5"/>
+    <mergeCell ref="J6:M6"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C11:F11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1191,7 +1429,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1224,135 +1462,135 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
       <c r="N2" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="10" t="s">
+      <c r="I3" s="33"/>
+      <c r="J3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
       <c r="N3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16" t="s">
+      <c r="B4" s="10"/>
+      <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="23" t="s">
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="11" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="1"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="10" t="s">
+      <c r="I4" s="33"/>
+      <c r="J4" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
       <c r="N4" s="1">
         <v>-4</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="8"/>
+      <c r="G5" s="11"/>
       <c r="H5" s="1"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="10" t="s">
+      <c r="I5" s="34"/>
+      <c r="J5" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="12"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
       <c r="N5" s="1">
         <v>-8</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
+      <c r="B6" s="10"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="11"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="27"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="33"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="17"/>
       <c r="N6" s="1">
         <v>-12</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="23"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="4"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="6"/>
+      <c r="M7" s="5"/>
       <c r="N7" s="1">
         <v>-16</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="27"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="33"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="17"/>
       <c r="N8" s="1">
         <v>-20</v>
       </c>
@@ -1366,125 +1604,125 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="33"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="17"/>
       <c r="N9" s="1">
         <v>-24</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="32"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="33"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="17"/>
       <c r="N10" s="1">
         <v>-28</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="16">
+      <c r="B11" s="10"/>
+      <c r="C11" s="24">
         <v>20</v>
       </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="11" t="s">
         <v>11</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="33"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="17"/>
       <c r="N11" s="1">
         <v>-32</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="20"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="33"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="17"/>
       <c r="N12" s="1">
         <v>-36</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="23"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="33"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="17"/>
       <c r="N13" s="1">
         <v>-40</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
-      <c r="G14" s="23"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="33"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="17"/>
       <c r="N14" s="1">
         <v>-44</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="33"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="17"/>
       <c r="N15" s="1">
         <v>-48</v>
       </c>
@@ -1499,82 +1737,82 @@
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="33"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="17"/>
       <c r="N16" s="1">
         <v>-52</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="33"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="17"/>
       <c r="N17" s="1">
         <v>-56</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="23"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="36"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="20"/>
       <c r="N18" s="1">
         <v>-60</v>
       </c>
     </row>
     <row r="19" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="22" t="s">
+      <c r="B19" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="23"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="23"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="14"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1594,18 +1832,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N22"/>
+  <dimension ref="A1:O38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1621,7 +1863,7 @@
       <c r="M1" s="2"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1630,391 +1872,715 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="7" t="s">
+      <c r="J2" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="1">
         <v>0</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="9"/>
-      <c r="N2" s="1">
+      <c r="O3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="47"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="1">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="50" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="21">
+        <v>2</v>
+      </c>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="1">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="47"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="N7" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="1">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="22"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="15"/>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="22"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="32"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="1">
-        <v>-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="24" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="1">
-        <v>-8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="12"/>
+      <c r="I9" s="35"/>
+      <c r="J9" s="21">
+        <v>2</v>
+      </c>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="23"/>
       <c r="N9" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="35"/>
+      <c r="J10" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="50">
+        <v>3</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="50" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="35"/>
+      <c r="J12" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="50" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="47"/>
+      <c r="L13" s="48"/>
+      <c r="M13" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N13" s="1">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="1">
         <v>-12</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="20"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="1">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="21">
+        <v>1</v>
+      </c>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="1">
         <v>-16</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="32"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="33"/>
-      <c r="N11" s="1">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="47"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="45" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="35"/>
+      <c r="J17" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="21">
+        <v>1</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="35"/>
+      <c r="J19" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="37"/>
+      <c r="C20" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="49" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="1">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="35"/>
+      <c r="J21" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="10"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="11"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K22" s="47"/>
+      <c r="L22" s="48"/>
+      <c r="M22" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N22" s="1">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="14"/>
+      <c r="I23" s="35"/>
+      <c r="J23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="1">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I24" s="36"/>
+      <c r="J24" s="21">
+        <v>0</v>
+      </c>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I25" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="J25" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="K25" s="47"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="N25" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I26" s="33"/>
+      <c r="J26" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I27" s="33"/>
+      <c r="J27" s="21">
+        <v>0</v>
+      </c>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I28" s="33"/>
+      <c r="J28" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I29" s="33"/>
+      <c r="J29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="1">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I30" s="33"/>
+      <c r="J30" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I31" s="33"/>
+      <c r="J31" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="1">
+        <v>-8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="I32" s="33"/>
+      <c r="J32" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="1">
+        <v>-12</v>
+      </c>
+    </row>
+    <row r="33" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I33" s="33"/>
+      <c r="J33" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="23"/>
+      <c r="N33" s="1">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="34" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I34" s="33"/>
+      <c r="J34" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="23"/>
+      <c r="N34" s="1">
         <v>-20</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="33"/>
-      <c r="N12" s="1">
+    <row r="35" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I35" s="33"/>
+      <c r="J35" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="23"/>
+      <c r="N35" s="1">
         <v>-24</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="32"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="33"/>
-      <c r="N13" s="1">
+    <row r="36" spans="9:14" x14ac:dyDescent="0.25">
+      <c r="I36" s="34"/>
+      <c r="J36" s="21">
+        <v>0</v>
+      </c>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="23"/>
+      <c r="N36" s="1">
         <v>-28</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="27"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="1">
+    <row r="37" spans="9:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="20"/>
+      <c r="N37" s="1">
         <v>-32</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="24" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="1">
-        <v>-36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="1">
-        <v>-40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="21"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="1">
-        <v>-44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="22"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="1">
-        <v>-48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="33"/>
-      <c r="N19" s="1">
-        <v>-52</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="1"/>
-      <c r="B20" s="22"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="32"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="33"/>
-      <c r="N20" s="1">
-        <v>-56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="25"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="36"/>
-      <c r="N21" s="1">
-        <v>-60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="9:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="46">
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="I25:I36"/>
+    <mergeCell ref="J17:M17"/>
+    <mergeCell ref="J18:M18"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="J19:M19"/>
+    <mergeCell ref="J20:M20"/>
+    <mergeCell ref="J21:M21"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="J23:M23"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="I16:I24"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="J14:M14"/>
+    <mergeCell ref="J15:M15"/>
+    <mergeCell ref="I7:I15"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="J8:M8"/>
+    <mergeCell ref="J10:M10"/>
+    <mergeCell ref="J11:M11"/>
+    <mergeCell ref="J12:M12"/>
+    <mergeCell ref="C20:F21"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C13:F13"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="I2:I9"/>
+    <mergeCell ref="C4:F4"/>
     <mergeCell ref="J2:M2"/>
     <mergeCell ref="J3:M3"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="J4:M4"/>
-    <mergeCell ref="C5:D5"/>
     <mergeCell ref="J5:M5"/>
     <mergeCell ref="J6:M6"/>
-    <mergeCell ref="J8:M8"/>
-    <mergeCell ref="J9:M9"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="I2:I6"/>
+    <mergeCell ref="J7:L7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>